--- a/State_ranking.xlsx
+++ b/State_ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d1ccbb4cd3a682d/Desktop/GW Bootcamp/Class Work/Project 7/Data-Wonders-Group-Project-1/Data-Wonders-Group-Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB88A8B-2C62-402A-A581-0BE2C6579114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{ABB88A8B-2C62-402A-A581-0BE2C6579114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90249D8B-1752-4C8C-BFD1-937049D18734}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A627695E-E544-43FA-8CEE-B3260CB3BF74}"/>
   </bookViews>
@@ -205,7 +205,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +235,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -263,10 +279,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -291,9 +309,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1907,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD030456-5259-4477-9B77-D86ECF26FAA8}">
-  <dimension ref="B3:D53"/>
+  <dimension ref="B3:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1919,9 +1944,12 @@
     <col min="3" max="3" width="25.7265625" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="6" width="18.6328125" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -1932,7 +1960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
@@ -1942,8 +1970,16 @@
       <c r="D4" s="8">
         <v>6.6699999999999995E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="10">
+        <v>25674681</v>
+      </c>
+      <c r="F4" s="11">
+        <f>E4/$E$54</f>
+        <v>8.2574539998537991E-2</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
@@ -1953,8 +1989,16 @@
       <c r="D5" s="8">
         <v>4.4900000000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="10">
+        <v>11544951</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5:F53" si="0">E5/$E$54</f>
+        <v>3.7130705465460746E-2</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1964,8 +2008,17 @@
       <c r="D6" s="8">
         <v>4.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
+        <v>37691912</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12122418561170727</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
@@ -1975,8 +2028,16 @@
       <c r="D7" s="8">
         <v>4.2599999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="10">
+        <v>19465197</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2603686809426046E-2</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1986,8 +2047,17 @@
       <c r="D8" s="8">
         <v>3.8600000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="10">
+        <v>19057542</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1292592657833517E-2</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1997,8 +2067,16 @@
       <c r="D9" s="8">
         <v>3.7400000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="10">
+        <v>12869257</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1389919387818878E-2</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
@@ -2008,8 +2086,17 @@
       <c r="D10" s="8">
         <v>3.7100000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="10">
+        <v>9815210</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1567537323601021E-2</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -2019,8 +2106,17 @@
       <c r="D11" s="8">
         <v>3.2399999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="10">
+        <v>9876187</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1763650674551357E-2</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
@@ -2030,8 +2126,17 @@
       <c r="D12" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="10">
+        <v>8090423</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6020302165335244E-2</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
@@ -2041,8 +2146,17 @@
       <c r="D13" s="8">
         <v>3.1099999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="10">
+        <v>6010688</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.933148835129567E-2</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
@@ -2052,8 +2166,17 @@
       <c r="D14" s="8">
         <v>2.9899999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
+        <v>4369356</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>1.405265996449389E-2</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
@@ -2063,8 +2186,17 @@
       <c r="D15" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="10">
+        <v>9656401</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1056778100433738E-2</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
@@ -2074,8 +2206,17 @@
       <c r="D16" s="8">
         <v>2.8799999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="10">
+        <v>12742886</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0983486794005729E-2</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>41</v>
       </c>
@@ -2085,8 +2226,17 @@
       <c r="D17" s="8">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="10">
+        <v>6403353</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0594371880346175E-2</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
@@ -2096,8 +2246,17 @@
       <c r="D18" s="8">
         <v>2.24E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="10">
+        <v>6516922</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0959630865768193E-2</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
@@ -2107,8 +2266,17 @@
       <c r="D19" s="8">
         <v>2.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="10">
+        <v>2871238</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2344343860132957E-3</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
@@ -2118,8 +2286,17 @@
       <c r="D20" s="8">
         <v>2.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="10">
+        <v>5711767</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8370102927620768E-2</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
@@ -2129,8 +2306,17 @@
       <c r="D21" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="10">
+        <v>3062309</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>9.8489541898644367E-3</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -2140,8 +2326,17 @@
       <c r="D22" s="8">
         <v>2.0400000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="10">
+        <v>5344861</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7190065124124649E-2</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
         <v>19</v>
       </c>
@@ -2151,8 +2346,17 @@
       <c r="D23" s="8">
         <v>2.01E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="10">
+        <v>5828289</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8744859309197996E-2</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2162,8 +2366,17 @@
       <c r="D24" s="8">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E24" s="10">
+        <v>5116796</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6456565749204798E-2</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
@@ -2173,8 +2386,17 @@
       <c r="D25" s="8">
         <v>1.9300000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E25" s="10">
+        <v>3791508</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2194193532561388E-2</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
@@ -2184,8 +2406,19 @@
       <c r="D26" s="8">
         <v>1.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E26" s="10">
+        <v>1842641</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9262754990975757E-3</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="J26" s="10">
+        <v>948406</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
@@ -2195,8 +2428,17 @@
       <c r="D27" s="8">
         <v>1.84E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E27" s="10">
+        <v>8821155</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8370471920597704E-2</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
         <v>46</v>
       </c>
@@ -2206,8 +2448,17 @@
       <c r="D28" s="8">
         <v>1.78E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E28" s="10">
+        <v>6830038</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
+        <v>2.1966670044412016E-2</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
         <v>23</v>
       </c>
@@ -2217,8 +2468,17 @@
       <c r="D29" s="8">
         <v>1.6899999999999998E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E29" s="10">
+        <v>2978512</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
+        <v>9.5794474829161598E-3</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
         <v>47</v>
       </c>
@@ -2228,8 +2488,17 @@
       <c r="D30" s="8">
         <v>1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E30" s="10">
+        <v>1855364</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="0"/>
+        <v>5.967195028824211E-3</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
         <v>50</v>
       </c>
@@ -2239,8 +2508,17 @@
       <c r="D31" s="8">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E31" s="10">
+        <v>4802740</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5446503356072012E-2</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
@@ -2250,8 +2528,17 @@
       <c r="D32" s="8">
         <v>1.5699999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E32" s="10">
+        <v>2937979</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="0"/>
+        <v>9.449085830915081E-3</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
         <v>16</v>
       </c>
@@ -2261,8 +2548,17 @@
       <c r="D33" s="8">
         <v>1.55E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E33" s="10">
+        <v>4559851</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4665327245424138E-2</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
@@ -2272,8 +2568,17 @@
       <c r="D34" s="8">
         <v>1.54E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E34" s="10">
+        <v>6587536</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="0"/>
+        <v>2.1186738597601618E-2</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
@@ -2283,8 +2588,17 @@
       <c r="D35" s="8">
         <v>1.43E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E35" s="10">
+        <v>6482505</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0848939405059112E-2</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
@@ -2294,8 +2608,17 @@
       <c r="D36" s="8">
         <v>1.34E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E36" s="10">
+        <v>810154</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6056056500945637E-3</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
@@ -2305,8 +2628,17 @@
       <c r="D37" s="8">
         <v>1.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E37" s="10">
+        <v>4679230</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5049272269336429E-2</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="9" t="s">
         <v>43</v>
       </c>
@@ -2316,8 +2648,17 @@
       <c r="D38" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E38" s="10">
+        <v>2817222</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="0"/>
+        <v>9.0607089032093985E-3</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2668,17 @@
       <c r="D39" s="8">
         <v>1.14E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E39" s="10">
+        <v>998199</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="0"/>
+        <v>3.2103932762397561E-3</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="9" t="s">
         <v>30</v>
       </c>
@@ -2338,8 +2688,17 @@
       <c r="D40" s="8">
         <v>1.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E40" s="10">
+        <v>2082224</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6968189000640652E-3</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
         <v>36</v>
       </c>
@@ -2349,8 +2708,17 @@
       <c r="D41" s="8">
         <v>1.12E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E41" s="10">
+        <v>3871859</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2452617263840563E-2</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
         <v>27</v>
       </c>
@@ -2360,8 +2728,17 @@
       <c r="D42" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E42" s="10">
+        <v>2723322</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="0"/>
+        <v>8.7587090728760558E-3</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="9" t="s">
         <v>33</v>
       </c>
@@ -2371,8 +2748,17 @@
       <c r="D43" s="8">
         <v>1.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E43" s="10">
+        <v>683932</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="0"/>
+        <v>2.1996522679397683E-3</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="9" t="s">
         <v>5</v>
       </c>
@@ -2382,8 +2768,17 @@
       <c r="D44" s="8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E44" s="10">
+        <v>3580709</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1516224818669605E-2</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
         <v>10</v>
       </c>
@@ -2393,8 +2788,17 @@
       <c r="D45" s="8">
         <v>9.2999999999999992E-3</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E45" s="10">
+        <v>1584985</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="0"/>
+        <v>5.0976059753023899E-3</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="9" t="s">
         <v>0</v>
       </c>
@@ -2404,8 +2808,17 @@
       <c r="D46" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E46" s="10">
+        <v>711218</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="0"/>
+        <v>2.2874091089458985E-3</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="9" t="s">
         <v>49</v>
       </c>
@@ -2415,8 +2828,17 @@
       <c r="D47" s="8">
         <v>4.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E47" s="10">
+        <v>568158</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8273015932112008E-3</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="9" t="s">
         <v>17</v>
       </c>
@@ -2426,8 +2848,17 @@
       <c r="D48" s="8">
         <v>4.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E48" s="10">
+        <v>1328188</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2716991549604129E-3</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="9" t="s">
         <v>28</v>
       </c>
@@ -2437,8 +2868,17 @@
       <c r="D49" s="8">
         <v>3.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E49" s="10">
+        <v>1318194</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2395565958086405E-3</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="9" t="s">
         <v>38</v>
       </c>
@@ -2448,8 +2888,17 @@
       <c r="D50" s="8">
         <v>3.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="10">
+        <v>1051302</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3811823815666094E-3</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="9" t="s">
         <v>44</v>
       </c>
@@ -2459,8 +2908,17 @@
       <c r="D51" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="10">
+        <v>626431</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="0"/>
+        <v>2.014718378227334E-3</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="9" t="s">
         <v>6</v>
       </c>
@@ -2470,8 +2928,17 @@
       <c r="D52" s="8">
         <v>2.3999999999999998E-3</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="10">
+        <v>907135</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9175145483433173E-3</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="9" t="s">
         <v>9</v>
       </c>
@@ -2481,6 +2948,30 @@
       <c r="D53" s="8">
         <v>1.6999999999999999E-3</v>
       </c>
+      <c r="E53" s="10">
+        <v>1374810</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4216441612415754E-3</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <f>SUM(C4:C53)</f>
+        <v>310785</v>
+      </c>
+      <c r="E54" s="10">
+        <f>SUM(E4:E53)</f>
+        <v>310927327</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I55" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
